--- a/biology/Zoologie/Hemaris_diffinis/Hemaris_diffinis.xlsx
+++ b/biology/Zoologie/Hemaris_diffinis/Hemaris_diffinis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphinx du chèvrefeuille
 Le Sphinx du chèvrefeuille (Hemaris diffinis) est une espèce nord-américaine de lépidoptères (papillons) de la famille des Sphingidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Avers du mâle (coll.MHNT)
@@ -549,9 +563,11 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemaris diffinis est présente dans une grande partie des États-Unis et dans le Sud du Canada, principalement dans la moitié orientale du continent nord-américain[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemaris diffinis est présente dans une grande partie des États-Unis et dans le Sud du Canada, principalement dans la moitié orientale du continent nord-américain,.
 </t>
         </is>
       </c>
@@ -580,10 +596,12 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vernaculaire français de « Sphinx du chèvrefeuille » est aussi employé pour désigner une espèce européenne du même genre : Hemaris fuciformis (aussi appelé « Sphinx gazé »).
-En anglais, Hemaris diffinis est appelée snowberry clearwing[1].
+En anglais, Hemaris diffinis est appelée snowberry clearwing.
 </t>
         </is>
       </c>
@@ -612,10 +630,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite par l'entomologiste français Boisduval en 1836, sous le nom initial de Macroglossa diffinis[3],[4].
-Il existe plusieurs synonymes, notamment[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette espèce a été décrite par l'entomologiste français Boisduval en 1836, sous le nom initial de Macroglossa diffinis,.
+Il existe plusieurs synonymes, notamment :
 Macroglossa diffinis Boisduval, 1836
 Macroglossa thetis Boisduval, 1855
 Sesia axillaris Grote &amp; Robinson, 1868
